--- a/module/admin-api/InitFiles/zh-tw/custom_chat_extend_template.xlsx
+++ b/module/admin-api/InitFiles/zh-tw/custom_chat_extend_template.xlsx
@@ -1,53 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyman/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9340" tabRatio="759" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="759" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="导入模板说明" sheetId="1" r:id="rId1"/>
-    <sheet name="闲聊语料例子" sheetId="2" r:id="rId2"/>
-    <sheet name="闲聊语料" sheetId="4" r:id="rId3"/>
+    <sheet name="導入範本說明" sheetId="1" r:id="rId1"/>
+    <sheet name="閒聊語料例子" sheetId="2" r:id="rId2"/>
+    <sheet name="閒聊語料" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
-    <t>文档说明</t>
-  </si>
-  <si>
-    <t>模板说明</t>
-  </si>
-  <si>
-    <t>该模板为BFOP客制闲聊（第三方闲聊）的语料导入模板</t>
-  </si>
-  <si>
-    <t>名词说明</t>
-  </si>
-  <si>
-    <t>问题：问题为闲聊的标准描述，例如：您好、你好，好啊的标准描述为“您好”
-语料：语料为知识点的相似表述</t>
-  </si>
-  <si>
-    <t>sheet表说明</t>
+    <t>文檔說明</t>
+  </si>
+  <si>
+    <t>範本說明</t>
+  </si>
+  <si>
+    <t>該範本為BFOP客制閒聊（第三方閒聊）的語料導入範本</t>
+  </si>
+  <si>
+    <t>名詞說明</t>
+  </si>
+  <si>
+    <t>問題：問題為閒聊的標準描述，例如：您好、你好，好啊的標準描述為“您好”
+語料：語料為知識點的相似表述</t>
+  </si>
+  <si>
+    <t>sheet表說明</t>
   </si>
   <si>
     <r>
@@ -58,7 +45,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">闲聊语料例子----该页面为语料模板示例
+      <t xml:space="preserve">閒聊語料例子----該頁面為語料範本示例
 </t>
     </r>
     <r>
@@ -70,11 +57,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>闲聊语料----该页面为导入的正式闲聊语料</t>
-    </r>
-  </si>
-  <si>
-    <t>导入说明</t>
+      <t>閒聊語料----該頁面為導入的正式閒聊語料</t>
+    </r>
+  </si>
+  <si>
+    <t>導入說明</t>
   </si>
   <si>
     <r>
@@ -93,7 +80,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>语料请按照模版填写在［</t>
+      <t>語料請按照模版填寫在［</t>
     </r>
     <r>
       <rPr>
@@ -103,7 +90,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>闲聊语料</t>
+      <t>閒聊語料</t>
     </r>
     <r>
       <rPr>
@@ -112,7 +99,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>］页面中</t>
+      <t>］頁面中</t>
     </r>
     <r>
       <rPr>
@@ -131,7 +118,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>每行至少有一个问题和一个语料，系统对问题的语料数量无限制</t>
+      <t>每行至少有一個問題和一個語料，系統對問題的語料數量無限制</t>
     </r>
     <r>
       <rPr>
@@ -150,7 +137,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>每个问题包含字数不可超过</t>
+      <t>每個問題包含字數不可超過</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +174,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>每个语料包含字数不可超过</t>
+      <t>每個語料包含字數不可超過</t>
     </r>
     <r>
       <rPr>
@@ -224,7 +211,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>导入文件不超过</t>
+      <t>導入檔不超過</t>
     </r>
     <r>
       <rPr>
@@ -237,10 +224,10 @@
     </r>
   </si>
   <si>
-    <t>问题</t>
-  </si>
-  <si>
-    <t>相似问</t>
+    <t>問題</t>
+  </si>
+  <si>
+    <t>相似問</t>
   </si>
   <si>
     <t>你好</t>
@@ -252,20 +239,26 @@
     <t>嗨</t>
   </si>
   <si>
-    <t>再见</t>
+    <t>再見</t>
   </si>
   <si>
     <t>拜拜</t>
   </si>
   <si>
-    <t>再会</t>
+    <t>再會</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +294,150 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -321,14 +458,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,8 +478,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -446,9 +763,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -462,6 +1021,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -483,20 +1051,58 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -758,62 +1364,64 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="93.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="93.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
+    <row r="1" ht="15.15"/>
+    <row r="2" ht="17.4" spans="2:3">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" ht="28.8" spans="2:3">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="28" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="28.8" spans="2:3">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="105" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+    <row r="6" ht="102.75" spans="2:3">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -821,41 +1429,43 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:B7"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -863,7 +1473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -871,7 +1481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -879,7 +1489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -887,7 +1497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -899,26 +1509,29 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="15.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -927,7 +1540,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>